--- a/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV14x41197NT_完结老戴巫师 3 狂猎美剧式流程攻略解说猎魔人3 狩魔猎人3_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV14x41197NT_完结老戴巫师 3 狂猎美剧式流程攻略解说猎魔人3 狩魔猎人3_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="199">
   <si>
     <t>bvid</t>
   </si>
@@ -46,747 +46,587 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV14x41197NT</t>
   </si>
   <si>
-    <t>123294389</t>
-  </si>
-  <si>
     <t>balabalila</t>
   </si>
   <si>
+    <t>心心向荣_XXxR</t>
+  </si>
+  <si>
+    <t>fengxiaoyu39</t>
+  </si>
+  <si>
+    <t>心随风飞啊</t>
+  </si>
+  <si>
+    <t>rongerdong</t>
+  </si>
+  <si>
+    <t>bfgo5545</t>
+  </si>
+  <si>
+    <t>减肥-六十斤</t>
+  </si>
+  <si>
+    <t>李小满是女娃</t>
+  </si>
+  <si>
+    <t>肺痒痒的锐克</t>
+  </si>
+  <si>
+    <t>徐静雨の硬鲸</t>
+  </si>
+  <si>
+    <t>哦来哇咔咔</t>
+  </si>
+  <si>
+    <t>Swaggyz-</t>
+  </si>
+  <si>
+    <t>模翔森A</t>
+  </si>
+  <si>
+    <t>琅琅琅琅琅琅琅琅琅琅</t>
+  </si>
+  <si>
+    <t>东方名胜</t>
+  </si>
+  <si>
+    <t>悦Yueyy</t>
+  </si>
+  <si>
+    <t>深渊魔女艾蕾娅</t>
+  </si>
+  <si>
+    <t>愁男无敌</t>
+  </si>
+  <si>
+    <t>BB_LITH</t>
+  </si>
+  <si>
+    <t>Cxhy60202</t>
+  </si>
+  <si>
+    <t>很时尚的人</t>
+  </si>
+  <si>
+    <t>夏北月ing</t>
+  </si>
+  <si>
+    <t>Alex_Lucas233</t>
+  </si>
+  <si>
+    <t>Luigi_Sansonetti</t>
+  </si>
+  <si>
+    <t>LovEason今天要聽陳奕迅</t>
+  </si>
+  <si>
+    <t>任我行耶</t>
+  </si>
+  <si>
+    <t>明月弄清风</t>
+  </si>
+  <si>
+    <t>行走的檬柠</t>
+  </si>
+  <si>
+    <t>Tang2063758</t>
+  </si>
+  <si>
+    <t>蕾牌pocky</t>
+  </si>
+  <si>
+    <t>石家庄人-</t>
+  </si>
+  <si>
+    <t>货不对板大宝贝</t>
+  </si>
+  <si>
+    <t>安懿川的奇妙世界</t>
+  </si>
+  <si>
+    <t>l另一种蓝l</t>
+  </si>
+  <si>
+    <t>不转匪石</t>
+  </si>
+  <si>
+    <t>一方桐八幡</t>
+  </si>
+  <si>
+    <t>第7任适能者</t>
+  </si>
+  <si>
+    <t>升7级再改名</t>
+  </si>
+  <si>
+    <t>恐龙是一只狼</t>
+  </si>
+  <si>
+    <t>云星1v1</t>
+  </si>
+  <si>
+    <t>F-RN</t>
+  </si>
+  <si>
+    <t>sunforrain</t>
+  </si>
+  <si>
+    <t>杰克_霜精</t>
+  </si>
+  <si>
+    <t>悠然似顾无言</t>
+  </si>
+  <si>
+    <t>孤芳不自赏月影</t>
+  </si>
+  <si>
+    <t>祈祷好运连连</t>
+  </si>
+  <si>
+    <t>Slick9</t>
+  </si>
+  <si>
+    <t>高阶领主吉娜拉</t>
+  </si>
+  <si>
+    <t>可爱又迷人得正牌</t>
+  </si>
+  <si>
+    <t>七MM七</t>
+  </si>
+  <si>
+    <t>胖墩的玉米粒</t>
+  </si>
+  <si>
+    <t>大爱王林の某</t>
+  </si>
+  <si>
+    <t>24号爆炸物</t>
+  </si>
+  <si>
+    <t>刘备的二弟天下无敌</t>
+  </si>
+  <si>
+    <t>死亡之影Zed</t>
+  </si>
+  <si>
+    <t>OuterWildssssss</t>
+  </si>
+  <si>
+    <t>骄阳xz</t>
+  </si>
+  <si>
+    <t>莹光丶</t>
+  </si>
+  <si>
+    <t>重生之我是许长渭</t>
+  </si>
+  <si>
+    <t>强迫症不药名字</t>
+  </si>
+  <si>
     <t>保密</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>求问如果自己过去的话 法师藏身处入口在哪儿？</t>
   </si>
   <si>
+    <t>这个人物的画质怎么设置的？我的人物好糊啊</t>
+  </si>
+  <si>
+    <t>巫师3怎么新建存档呢？和朋友在一台电脑上玩，最近他新开的档互相存档弄的就很乱</t>
+  </si>
+  <si>
+    <t>原著</t>
+  </si>
+  <si>
+    <t>这是叶奈法？不好意思穿上衣服没认出来[抠鼻]</t>
+  </si>
+  <si>
+    <t>你的椰奶为啥是穿衣服？我的是果体[滑稽]</t>
+  </si>
+  <si>
+    <t>npc只会说对自己有利的话啊</t>
+  </si>
+  <si>
+    <t>完成并肩作战后到了迷雾之岛无法触发剧情怎么解决？</t>
+  </si>
+  <si>
+    <t>好多年前玩的，剧情已经忘了，就想着到处打牌了[笑哭]</t>
+  </si>
+  <si>
+    <t>这个游戏有漏的吗，不为别的，单纯想看看游戏内容全不全面[doge]</t>
+  </si>
+  <si>
+    <t>虽然通关了，但是看着大量剧透弹幕还是感到闹心</t>
+  </si>
+  <si>
+    <t>如果直接屠村把曼吉杀了，后面能知道丹的位置吗？我稳妥起见还是等他说出丹的下落再动手</t>
+  </si>
+  <si>
+    <t>[打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call]</t>
+  </si>
+  <si>
+    <t>玩巫师3需要玩前作吗 是连着的剧情吗</t>
+  </si>
+  <si>
+    <t>三代的画风真的舒服[笑哭]https://b23.tv/BV1DGc9etE74</t>
+  </si>
+  <si>
+    <t>我砍井中那个妖怪为什么一点声音都没有啊</t>
+  </si>
+  <si>
+    <t>问题是最终boss艾瑞丁设计太弱了。 好歹是最终boss，难不成赶工原因吗？就比如火元素都比这个厉害。</t>
+  </si>
+  <si>
+    <t>谁能告知下，纯主线的话。卜梦师那大概进度是多少了？</t>
+  </si>
+  <si>
+    <t>卧槽…最后白霜那里希里只有两个回忆心都凉了，结果居然是猎魔人结局[抓狂][抓狂][抓狂]过山车一样的体验，要是不提前知道有这个结局不知道有多爽</t>
+  </si>
+  <si>
+    <t>为啥巫师3晕三D</t>
+  </si>
+  <si>
+    <t>为什么我玩巫师三物品栏里的杰洛特把身上的装备什么的都挡住了，我到现在都没见过那一部分是什么样子[笑哭]</t>
+  </si>
+  <si>
+    <t>点火按钮bug好烦啊</t>
+  </si>
+  <si>
+    <t>问号要清吗</t>
+  </si>
+  <si>
+    <t>来回顾一下，玩了十几遍，把各种任务彩蛋结局都玩完了，成就也都解锁的，确实是个优秀的作品</t>
+  </si>
+  <si>
+    <t>前期这个背包重量过重了跑不起来怎么办，刚到那个吊死人的树下，到威伦</t>
+  </si>
+  <si>
+    <t>问下巫师三怎么才能把仓库里面的遗物宝剑摆放出来欣赏</t>
+  </si>
+  <si>
+    <t>我心中的最佳剧情游戏，太对我的胃口了</t>
+  </si>
+  <si>
+    <t>正在电子云补档…</t>
+  </si>
+  <si>
+    <t>现在的游戏大部分都是沙盘类 主线 支线一大堆 外加寻宝  个人觉得还一些老游戏 简单却不俗套 不少玩家还收藏游戏实体版本 说句心理话 这个年代游戏 不停的更新补丁 追加各种DLC</t>
+  </si>
+  <si>
+    <t>居然是护身符……我就说所有东西都找到了怎么还卡在这[笑哭][笑哭]</t>
+  </si>
+  <si>
+    <t>鼠李草在哪[脸红][脸红][脸红][脸红]</t>
+  </si>
+  <si>
+    <t>为什么电视上好难找，历史记录也没有</t>
+  </si>
+  <si>
+    <t>可能我恐怖的看多了我玩的时候不害怕不过带入感是不错的，就是太黑了我眼瞎了好多地方我路都看不清</t>
+  </si>
+  <si>
+    <t>我能接受的本体游戏体量最多十几个小时，再长就会感觉无聊，这次坚持30个小时打完了本体，结果还是个坏结局也没心情去玩dlc了[捂脸]</t>
+  </si>
+  <si>
+    <t>有交流群吗，我总是有bug不会修[委屈][委屈][委屈]</t>
+  </si>
+  <si>
+    <t>其实经过白果园一系列任务后，玩家就要学会随心所欲的去作出选择，因为不管你怎么选都没有完美选择，在立场上，你是非人类，和南北双方人类都站不到一起。</t>
+  </si>
+  <si>
+    <t>最后的愿望那里上船了但是叶奈法人不见了，而且我还操作不了了，求助</t>
+  </si>
+  <si>
+    <t>主线通了</t>
+  </si>
+  <si>
+    <t>最后那个任务，我怎么没有衣服和长剑呀</t>
+  </si>
+  <si>
+    <t>玩这个有种玩大表哥2的感觉，还不错</t>
+  </si>
+  <si>
+    <t>为什么我的结局是和希里</t>
+  </si>
+  <si>
+    <t>巫师实在是太长了, 还是看老戴的视频云游戏一下</t>
+  </si>
+  <si>
+    <t>为啥我是越肩视角[笑哭]，怎么调成人物居中啊</t>
+  </si>
+  <si>
+    <t>43集，24小时的攻略确实牛批</t>
+  </si>
+  <si>
+    <t>后面那个，血腥男爵后花园那个漆黑黑的洞，里面没有那个狼派的银剑，打开猎魔感知也没有这个宝箱</t>
+  </si>
+  <si>
+    <t>UP主，请问支线任务大地图又不显示，难道挨个去对话吗？</t>
+  </si>
+  <si>
+    <t>我下的巫师……怎么都没衣服[笑哭]</t>
+  </si>
+  <si>
+    <t>看完了原著再看巫师3，感觉这游戏更无敌了，尤其是代入感，强得可怕</t>
+  </si>
+  <si>
+    <t>诶，我这个地图加载不出来啊，卡了</t>
+  </si>
+  <si>
+    <t>没玩过前面两代，3可以入坑吗？会不会剧情看不懂[藏狐]</t>
+  </si>
+  <si>
+    <t>兄弟们，我卡在史凯利格这里了，在船上睡一觉，直接闪退，咋回事</t>
+  </si>
+  <si>
+    <t>卡在这个页面怎么办，没有蒲公英退不出去了按什么退出这个界面</t>
+  </si>
+  <si>
+    <t>这游戏看多了发现主要是剧情对话类游戏，不不能沉下心认真感受的话是略有一点无聊的</t>
+  </si>
+  <si>
+    <t>有人能告诉我尼弗迦德人在哪</t>
+  </si>
+  <si>
+    <t>史凯利格没钱怎么办</t>
+  </si>
+  <si>
+    <t>前天刚打完本体，准备接着玩dlc，突然有了个大胆的想法，拉瑞安做个巫师的crpg游戏怎么样？[doge]</t>
+  </si>
+  <si>
+    <t>最高难度体验杰洛特痛苦</t>
+  </si>
+  <si>
+    <t>[以闪亮之名_加油]</t>
+  </si>
+  <si>
+    <t>打算直接云完了，之前玩到P39，停了很久，现在回去玩，晕的一批</t>
+  </si>
+  <si>
+    <t>狂猎面具怎么回事怎么和原版不一样？</t>
+  </si>
+  <si>
     <t>2025-03-26 00:05:58</t>
   </si>
   <si>
-    <t>450755349</t>
-  </si>
-  <si>
-    <t>心心向荣_XXxR</t>
-  </si>
-  <si>
-    <t>这个人物的画质怎么设置的？我的人物好糊啊</t>
-  </si>
-  <si>
     <t>2025-03-25 23:07:52</t>
   </si>
   <si>
-    <t>18511431</t>
-  </si>
-  <si>
-    <t>fengxiaoyu39</t>
-  </si>
-  <si>
-    <t>巫师3怎么新建存档呢？和朋友在一台电脑上玩，最近他新开的档互相存档弄的就很乱</t>
-  </si>
-  <si>
     <t>2025-03-18 15:46:30</t>
   </si>
   <si>
-    <t>3493110428469870</t>
-  </si>
-  <si>
-    <t>心随风飞啊</t>
-  </si>
-  <si>
-    <t>原著</t>
-  </si>
-  <si>
     <t>2025-03-15 19:34:36</t>
   </si>
   <si>
-    <t>385121407</t>
-  </si>
-  <si>
-    <t>rongerdong</t>
-  </si>
-  <si>
-    <t>这是叶奈法？不好意思穿上衣服没认出来[抠鼻]</t>
-  </si>
-  <si>
     <t>2025-02-25 22:03:16</t>
   </si>
   <si>
-    <t>329315268</t>
-  </si>
-  <si>
-    <t>bfgo5545</t>
-  </si>
-  <si>
-    <t>你的椰奶为啥是穿衣服？我的是果体[滑稽]</t>
-  </si>
-  <si>
     <t>2025-02-24 00:22:41</t>
   </si>
   <si>
-    <t>66689266</t>
-  </si>
-  <si>
-    <t>减肥-六十斤</t>
-  </si>
-  <si>
-    <t>npc只会说对自己有利的话啊</t>
-  </si>
-  <si>
     <t>2025-02-22 11:09:14</t>
   </si>
   <si>
-    <t>3493266456578355</t>
-  </si>
-  <si>
-    <t>李小满是女娃</t>
-  </si>
-  <si>
-    <t>完成并肩作战后到了迷雾之岛无法触发剧情怎么解决？</t>
-  </si>
-  <si>
     <t>2025-02-12 09:01:44</t>
   </si>
   <si>
-    <t>122949404</t>
-  </si>
-  <si>
-    <t>肺痒痒的锐克</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>好多年前玩的，剧情已经忘了，就想着到处打牌了[笑哭]</t>
-  </si>
-  <si>
     <t>2025-02-09 22:57:48</t>
   </si>
   <si>
-    <t>282460970</t>
-  </si>
-  <si>
-    <t>徐静雨の硬鲸</t>
-  </si>
-  <si>
-    <t>这个游戏有漏的吗，不为别的，单纯想看看游戏内容全不全面[doge]</t>
-  </si>
-  <si>
     <t>2025-02-07 00:11:01</t>
   </si>
   <si>
-    <t>472902886</t>
-  </si>
-  <si>
-    <t>哦来哇咔咔</t>
-  </si>
-  <si>
-    <t>虽然通关了，但是看着大量剧透弹幕还是感到闹心</t>
-  </si>
-  <si>
     <t>2025-02-06 17:13:38</t>
   </si>
   <si>
-    <t>111832382</t>
-  </si>
-  <si>
-    <t>Swaggyz-</t>
-  </si>
-  <si>
-    <t>如果直接屠村把曼吉杀了，后面能知道丹的位置吗？我稳妥起见还是等他说出丹的下落再动手</t>
-  </si>
-  <si>
     <t>2025-02-03 03:25:13</t>
   </si>
   <si>
-    <t>1461724116</t>
-  </si>
-  <si>
-    <t>模翔森A</t>
-  </si>
-  <si>
-    <t>[打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call][打call]</t>
-  </si>
-  <si>
     <t>2025-02-01 17:12:21</t>
   </si>
   <si>
-    <t>393669491</t>
-  </si>
-  <si>
-    <t>琅琅琅琅琅琅琅琅琅琅</t>
-  </si>
-  <si>
-    <t>玩巫师3需要玩前作吗 是连着的剧情吗</t>
-  </si>
-  <si>
     <t>2025-01-29 21:24:58</t>
   </si>
   <si>
-    <t>107845780</t>
-  </si>
-  <si>
-    <t>东方名胜</t>
-  </si>
-  <si>
-    <t>三代的画风真的舒服[笑哭]https://b23.tv/BV1DGc9etE74</t>
-  </si>
-  <si>
     <t>2025-01-27 02:12:09</t>
   </si>
   <si>
-    <t>312987987</t>
-  </si>
-  <si>
-    <t>悦Yueyy</t>
-  </si>
-  <si>
-    <t>我砍井中那个妖怪为什么一点声音都没有啊</t>
-  </si>
-  <si>
     <t>2025-01-26 16:30:45</t>
   </si>
   <si>
-    <t>25954103</t>
-  </si>
-  <si>
-    <t>深渊魔女艾蕾娅</t>
-  </si>
-  <si>
-    <t>问题是最终boss艾瑞丁设计太弱了。 好歹是最终boss，难不成赶工原因吗？就比如火元素都比这个厉害。</t>
-  </si>
-  <si>
     <t>2025-01-26 14:50:38</t>
   </si>
   <si>
-    <t>303506426</t>
-  </si>
-  <si>
-    <t>愁男无敌</t>
-  </si>
-  <si>
-    <t>谁能告知下，纯主线的话。卜梦师那大概进度是多少了？</t>
-  </si>
-  <si>
     <t>2025-01-22 21:25:13</t>
   </si>
   <si>
-    <t>1825885219</t>
-  </si>
-  <si>
-    <t>BB_LITH</t>
-  </si>
-  <si>
-    <t>卧槽…最后白霜那里希里只有两个回忆心都凉了，结果居然是猎魔人结局[抓狂][抓狂][抓狂]过山车一样的体验，要是不提前知道有这个结局不知道有多爽</t>
-  </si>
-  <si>
     <t>2025-01-21 21:27:02</t>
   </si>
   <si>
-    <t>404993639</t>
-  </si>
-  <si>
-    <t>Cxhy60202</t>
-  </si>
-  <si>
-    <t>为啥巫师3晕三D</t>
-  </si>
-  <si>
     <t>2025-01-21 20:26:47</t>
   </si>
   <si>
-    <t>194588253</t>
-  </si>
-  <si>
-    <t>很时尚的人</t>
-  </si>
-  <si>
-    <t>为什么我玩巫师三物品栏里的杰洛特把身上的装备什么的都挡住了，我到现在都没见过那一部分是什么样子[笑哭]</t>
-  </si>
-  <si>
     <t>2025-01-17 01:33:22</t>
   </si>
   <si>
-    <t>190098405</t>
-  </si>
-  <si>
-    <t>夏北月ing</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>点火按钮bug好烦啊</t>
-  </si>
-  <si>
     <t>2025-01-14 01:50:39</t>
   </si>
   <si>
-    <t>80184618</t>
-  </si>
-  <si>
-    <t>Alex_Lucas233</t>
-  </si>
-  <si>
-    <t>问号要清吗</t>
-  </si>
-  <si>
     <t>2025-01-10 11:40:05</t>
   </si>
   <si>
-    <t>352296438</t>
-  </si>
-  <si>
-    <t>Luigi_Sansonetti</t>
-  </si>
-  <si>
-    <t>来回顾一下，玩了十几遍，把各种任务彩蛋结局都玩完了，成就也都解锁的，确实是个优秀的作品</t>
-  </si>
-  <si>
     <t>2025-01-09 20:13:15</t>
   </si>
   <si>
-    <t>401414303</t>
-  </si>
-  <si>
-    <t>LovEason今天要聽陳奕迅</t>
-  </si>
-  <si>
-    <t>前期这个背包重量过重了跑不起来怎么办，刚到那个吊死人的树下，到威伦</t>
-  </si>
-  <si>
     <t>2025-01-08 19:08:55</t>
   </si>
   <si>
-    <t>482157011</t>
-  </si>
-  <si>
-    <t>任我行耶</t>
-  </si>
-  <si>
-    <t>问下巫师三怎么才能把仓库里面的遗物宝剑摆放出来欣赏</t>
-  </si>
-  <si>
     <t>2025-01-08 17:50:15</t>
   </si>
   <si>
-    <t>392705660</t>
-  </si>
-  <si>
-    <t>明月弄清风</t>
-  </si>
-  <si>
-    <t>我心中的最佳剧情游戏，太对我的胃口了</t>
-  </si>
-  <si>
     <t>2025-01-06 16:56:47</t>
   </si>
   <si>
-    <t>1445456704</t>
-  </si>
-  <si>
-    <t>行走的檬柠</t>
-  </si>
-  <si>
-    <t>正在电子云补档…</t>
-  </si>
-  <si>
     <t>2024-12-30 15:13:52</t>
   </si>
   <si>
-    <t>385013838</t>
-  </si>
-  <si>
-    <t>Tang2063758</t>
-  </si>
-  <si>
-    <t>现在的游戏大部分都是沙盘类 主线 支线一大堆 外加寻宝  个人觉得还一些老游戏 简单却不俗套 不少玩家还收藏游戏实体版本 说句心理话 这个年代游戏 不停的更新补丁 追加各种DLC</t>
-  </si>
-  <si>
     <t>2024-12-30 01:08:15</t>
   </si>
   <si>
-    <t>179659111</t>
-  </si>
-  <si>
-    <t>蕾牌pocky</t>
-  </si>
-  <si>
-    <t>居然是护身符……我就说所有东西都找到了怎么还卡在这[笑哭][笑哭]</t>
-  </si>
-  <si>
     <t>2024-12-29 15:31:10</t>
   </si>
   <si>
-    <t>403660919</t>
-  </si>
-  <si>
-    <t>石家庄人-</t>
-  </si>
-  <si>
-    <t>鼠李草在哪[脸红][脸红][脸红][脸红]</t>
-  </si>
-  <si>
     <t>2024-12-27 17:37:25</t>
   </si>
   <si>
-    <t>1015592717</t>
-  </si>
-  <si>
-    <t>货不对板大宝贝</t>
-  </si>
-  <si>
-    <t>为什么电视上好难找，历史记录也没有</t>
-  </si>
-  <si>
     <t>2024-12-25 14:12:34</t>
   </si>
   <si>
-    <t>143865705</t>
-  </si>
-  <si>
-    <t>安懿川的奇妙世界</t>
-  </si>
-  <si>
-    <t>可能我恐怖的看多了我玩的时候不害怕不过带入感是不错的，就是太黑了我眼瞎了好多地方我路都看不清</t>
-  </si>
-  <si>
     <t>2024-12-25 11:06:25</t>
   </si>
   <si>
-    <t>3546610162207624</t>
-  </si>
-  <si>
-    <t>l另一种蓝l</t>
-  </si>
-  <si>
-    <t>我能接受的本体游戏体量最多十几个小时，再长就会感觉无聊，这次坚持30个小时打完了本体，结果还是个坏结局也没心情去玩dlc了[捂脸]</t>
-  </si>
-  <si>
     <t>2024-12-24 18:45:44</t>
   </si>
   <si>
-    <t>1332962757</t>
-  </si>
-  <si>
-    <t>不转匪石</t>
-  </si>
-  <si>
-    <t>有交流群吗，我总是有bug不会修[委屈][委屈][委屈]</t>
-  </si>
-  <si>
     <t>2024-12-24 11:11:45</t>
   </si>
   <si>
-    <t>11026690</t>
-  </si>
-  <si>
-    <t>一方桐八幡</t>
-  </si>
-  <si>
-    <t>其实经过白果园一系列任务后，玩家就要学会随心所欲的去作出选择，因为不管你怎么选都没有完美选择，在立场上，你是非人类，和南北双方人类都站不到一起。</t>
-  </si>
-  <si>
     <t>2024-12-22 12:36:23</t>
   </si>
   <si>
-    <t>1201326872</t>
-  </si>
-  <si>
-    <t>第7任适能者</t>
-  </si>
-  <si>
-    <t>最后的愿望那里上船了但是叶奈法人不见了，而且我还操作不了了，求助</t>
-  </si>
-  <si>
     <t>2024-12-21 00:25:09</t>
   </si>
   <si>
-    <t>286071748</t>
-  </si>
-  <si>
-    <t>升7级再改名</t>
-  </si>
-  <si>
-    <t>主线通了</t>
-  </si>
-  <si>
     <t>2024-12-20 17:16:57</t>
   </si>
   <si>
-    <t>1495660203</t>
-  </si>
-  <si>
-    <t>恐龙是一只狼</t>
-  </si>
-  <si>
-    <t>最后那个任务，我怎么没有衣服和长剑呀</t>
-  </si>
-  <si>
     <t>2024-12-18 14:34:24</t>
   </si>
   <si>
-    <t>1935583962</t>
-  </si>
-  <si>
-    <t>云星1v1</t>
-  </si>
-  <si>
-    <t>玩这个有种玩大表哥2的感觉，还不错</t>
-  </si>
-  <si>
     <t>2024-12-16 20:51:13</t>
   </si>
   <si>
-    <t>483680732</t>
-  </si>
-  <si>
-    <t>F-RN</t>
-  </si>
-  <si>
-    <t>为什么我的结局是和希里</t>
-  </si>
-  <si>
     <t>2024-12-16 19:52:53</t>
   </si>
   <si>
-    <t>418867814</t>
-  </si>
-  <si>
-    <t>sunforrain</t>
-  </si>
-  <si>
-    <t>巫师实在是太长了, 还是看老戴的视频云游戏一下</t>
-  </si>
-  <si>
     <t>2024-12-16 11:08:47</t>
   </si>
   <si>
-    <t>168089054</t>
-  </si>
-  <si>
-    <t>杰克_霜精</t>
-  </si>
-  <si>
-    <t>为啥我是越肩视角[笑哭]，怎么调成人物居中啊</t>
-  </si>
-  <si>
     <t>2024-12-14 18:52:35</t>
   </si>
   <si>
-    <t>351728682</t>
-  </si>
-  <si>
-    <t>悠然似顾无言</t>
-  </si>
-  <si>
-    <t>43集，24小时的攻略确实牛批</t>
-  </si>
-  <si>
     <t>2024-12-13 22:01:17</t>
   </si>
   <si>
-    <t>66116494</t>
-  </si>
-  <si>
-    <t>孤芳不自赏月影</t>
-  </si>
-  <si>
-    <t>后面那个，血腥男爵后花园那个漆黑黑的洞，里面没有那个狼派的银剑，打开猎魔感知也没有这个宝箱</t>
-  </si>
-  <si>
     <t>2024-12-10 23:58:33</t>
   </si>
   <si>
-    <t>434868356</t>
-  </si>
-  <si>
-    <t>祈祷好运连连</t>
-  </si>
-  <si>
-    <t>UP主，请问支线任务大地图又不显示，难道挨个去对话吗？</t>
-  </si>
-  <si>
     <t>2024-12-10 19:27:30</t>
   </si>
   <si>
-    <t>3546688207719267</t>
-  </si>
-  <si>
-    <t>Slick9</t>
-  </si>
-  <si>
-    <t>我下的巫师……怎么都没衣服[笑哭]</t>
-  </si>
-  <si>
     <t>2024-12-06 13:16:08</t>
   </si>
   <si>
-    <t>362890131</t>
-  </si>
-  <si>
-    <t>高阶领主吉娜拉</t>
-  </si>
-  <si>
-    <t>看完了原著再看巫师3，感觉这游戏更无敌了，尤其是代入感，强得可怕</t>
-  </si>
-  <si>
     <t>2024-12-06 04:58:24</t>
   </si>
   <si>
-    <t>351936787</t>
-  </si>
-  <si>
-    <t>可爱又迷人得正牌</t>
-  </si>
-  <si>
-    <t>诶，我这个地图加载不出来啊，卡了</t>
-  </si>
-  <si>
     <t>2024-12-04 20:22:53</t>
   </si>
   <si>
-    <t>3493263514274374</t>
-  </si>
-  <si>
-    <t>七MM七</t>
-  </si>
-  <si>
-    <t>没玩过前面两代，3可以入坑吗？会不会剧情看不懂[藏狐]</t>
-  </si>
-  <si>
     <t>2024-12-03 22:03:00</t>
   </si>
   <si>
-    <t>50951790</t>
-  </si>
-  <si>
-    <t>胖墩的玉米粒</t>
-  </si>
-  <si>
-    <t>兄弟们，我卡在史凯利格这里了，在船上睡一觉，直接闪退，咋回事</t>
-  </si>
-  <si>
     <t>2024-12-03 00:17:54</t>
   </si>
   <si>
-    <t>404217287</t>
-  </si>
-  <si>
-    <t>大爱王林の某</t>
-  </si>
-  <si>
-    <t>卡在这个页面怎么办，没有蒲公英退不出去了按什么退出这个界面</t>
-  </si>
-  <si>
     <t>2024-12-01 18:31:26</t>
   </si>
   <si>
-    <t>390433544</t>
-  </si>
-  <si>
-    <t>24号爆炸物</t>
-  </si>
-  <si>
-    <t>这游戏看多了发现主要是剧情对话类游戏，不不能沉下心认真感受的话是略有一点无聊的</t>
-  </si>
-  <si>
     <t>2024-11-30 17:57:45</t>
   </si>
   <si>
-    <t>3546379393698286</t>
-  </si>
-  <si>
-    <t>刘备的二弟天下无敌</t>
-  </si>
-  <si>
-    <t>有人能告诉我尼弗迦德人在哪</t>
-  </si>
-  <si>
     <t>2024-11-28 18:38:52</t>
   </si>
   <si>
-    <t>543100395</t>
-  </si>
-  <si>
-    <t>死亡之影Zed</t>
-  </si>
-  <si>
-    <t>史凯利格没钱怎么办</t>
-  </si>
-  <si>
     <t>2024-11-22 19:58:04</t>
   </si>
   <si>
-    <t>696567151</t>
-  </si>
-  <si>
-    <t>OuterWildssssss</t>
-  </si>
-  <si>
-    <t>前天刚打完本体，准备接着玩dlc，突然有了个大胆的想法，拉瑞安做个巫师的crpg游戏怎么样？[doge]</t>
-  </si>
-  <si>
     <t>2024-11-22 07:06:43</t>
   </si>
   <si>
-    <t>2067235740</t>
-  </si>
-  <si>
-    <t>骄阳xz</t>
-  </si>
-  <si>
-    <t>最高难度体验杰洛特痛苦</t>
-  </si>
-  <si>
     <t>2024-11-15 20:11:55</t>
   </si>
   <si>
-    <t>278753906</t>
-  </si>
-  <si>
-    <t>莹光丶</t>
-  </si>
-  <si>
-    <t>[以闪亮之名_加油]</t>
-  </si>
-  <si>
     <t>2024-11-15 19:17:35</t>
   </si>
   <si>
-    <t>687303190</t>
-  </si>
-  <si>
-    <t>重生之我是许长渭</t>
-  </si>
-  <si>
-    <t>打算直接云完了，之前玩到P39，停了很久，现在回去玩，晕的一批</t>
-  </si>
-  <si>
     <t>2024-11-15 12:06:03</t>
   </si>
   <si>
-    <t>2015057069</t>
-  </si>
-  <si>
-    <t>强迫症不药名字</t>
-  </si>
-  <si>
-    <t>狂猎面具怎么回事怎么和原版不一样？</t>
-  </si>
-  <si>
     <t>2024-11-14 01:00:26</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>中性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -802,7 +642,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -810,12 +650,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,705 +968,768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>257883541393</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>123294389</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>258690671856</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>450755349</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>258081989088</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="C4">
+        <v>18511431</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257060512481</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
+      <c r="C5">
+        <v>3493110428469870</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>256360897760</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="C6">
+        <v>385121407</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>255488402817</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
+      <c r="C7">
+        <v>329315268</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>255335015377</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
+      <c r="C8">
+        <v>66689266</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>254443425217</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
+      <c r="C9">
+        <v>3493266456578355</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>254899960208</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
+      <c r="C10">
+        <v>122949404</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>253948702097</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
+      <c r="C11">
+        <v>282460970</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>253910593809</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
+      <c r="C12">
+        <v>472902886</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>253589290929</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="C13">
+        <v>111832382</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>254094481744</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
+      <c r="C14">
+        <v>1461724116</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>253202863313</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
+      <c r="C15">
+        <v>393669491</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>252949459057</v>
       </c>
-      <c r="C16" t="s">
-        <v>70</v>
+      <c r="C16">
+        <v>107845780</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>252901074033</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
+      <c r="C17">
+        <v>312987987</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>253516026192</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
+      <c r="C18">
+        <v>25954103</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>253148173328</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
+      <c r="C19">
+        <v>303506426</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>253038219856</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
+      <c r="C20">
+        <v>1825885219</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>253032580352</v>
       </c>
-      <c r="C21" t="s">
-        <v>90</v>
+      <c r="C21">
+        <v>404993639</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>252003175873</v>
       </c>
-      <c r="C22" t="s">
-        <v>94</v>
+      <c r="C22">
+        <v>194588253</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
         <v>96</v>
@@ -1817,1255 +1738,1375 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>252317256816</v>
       </c>
-      <c r="C23" t="s">
-        <v>98</v>
+      <c r="C23">
+        <v>190098405</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>251980144928</v>
       </c>
-      <c r="C24" t="s">
-        <v>103</v>
+      <c r="C24">
+        <v>80184618</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>251933108528</v>
       </c>
-      <c r="C25" t="s">
-        <v>107</v>
+      <c r="C25">
+        <v>352296438</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>251842455360</v>
       </c>
-      <c r="C26" t="s">
-        <v>111</v>
+      <c r="C26">
+        <v>401414303</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>251835538832</v>
       </c>
-      <c r="C27" t="s">
-        <v>115</v>
+      <c r="C27">
+        <v>482157011</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>251126185361</v>
       </c>
-      <c r="C28" t="s">
-        <v>119</v>
+      <c r="C28">
+        <v>392705660</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>251040540496</v>
       </c>
-      <c r="C29" t="s">
-        <v>123</v>
+      <c r="C29">
+        <v>1445456704</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>251003386272</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
+      <c r="C30">
+        <v>385013838</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>250956103568</v>
       </c>
-      <c r="C31" t="s">
-        <v>131</v>
+      <c r="C31">
+        <v>179659111</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>250792422224</v>
       </c>
-      <c r="C32" t="s">
-        <v>135</v>
+      <c r="C32">
+        <v>403660919</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>250613364080</v>
       </c>
-      <c r="C33" t="s">
-        <v>139</v>
+      <c r="C33">
+        <v>1015592717</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>250598947104</v>
       </c>
-      <c r="C34" t="s">
-        <v>143</v>
+      <c r="C34">
+        <v>143865705</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F34">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>250548388384</v>
       </c>
-      <c r="C35" t="s">
-        <v>147</v>
+      <c r="C35">
+        <v>3546610162207624</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>250031328017</v>
       </c>
-      <c r="C36" t="s">
-        <v>151</v>
+      <c r="C36">
+        <v>1332962757</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>249878149201</v>
       </c>
-      <c r="C37" t="s">
-        <v>155</v>
+      <c r="C37">
+        <v>11026690</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>249764251585</v>
       </c>
-      <c r="C38" t="s">
-        <v>159</v>
+      <c r="C38">
+        <v>1201326872</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>250194751840</v>
       </c>
-      <c r="C39" t="s">
-        <v>163</v>
+      <c r="C39">
+        <v>286071748</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>250011123120</v>
       </c>
-      <c r="C40" t="s">
-        <v>167</v>
+      <c r="C40">
+        <v>1495660203</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>249420775281</v>
       </c>
-      <c r="C41" t="s">
-        <v>171</v>
+      <c r="C41">
+        <v>1935583962</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>249864056288</v>
       </c>
-      <c r="C42" t="s">
-        <v>175</v>
+      <c r="C42">
+        <v>483680732</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>249825324144</v>
       </c>
-      <c r="C43" t="s">
-        <v>179</v>
+      <c r="C43">
+        <v>418867814</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>249238251537</v>
       </c>
-      <c r="C44" t="s">
-        <v>183</v>
+      <c r="C44">
+        <v>168089054</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>249166534897</v>
       </c>
-      <c r="C45" t="s">
-        <v>187</v>
+      <c r="C45">
+        <v>351728682</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>248930389921</v>
       </c>
-      <c r="C46" t="s">
-        <v>191</v>
+      <c r="C46">
+        <v>66116494</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>248907981713</v>
       </c>
-      <c r="C47" t="s">
-        <v>195</v>
+      <c r="C47">
+        <v>434868356</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>248552035953</v>
       </c>
-      <c r="C48" t="s">
-        <v>199</v>
+      <c r="C48">
+        <v>3546688207719267</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>248938737760</v>
       </c>
-      <c r="C49" t="s">
-        <v>203</v>
+      <c r="C49">
+        <v>362890131</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>248423015473</v>
       </c>
-      <c r="C50" t="s">
-        <v>207</v>
+      <c r="C50">
+        <v>351936787</v>
       </c>
       <c r="D50" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>248350177649</v>
       </c>
-      <c r="C51" t="s">
-        <v>211</v>
+      <c r="C51">
+        <v>3493263514274374</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>248287103281</v>
       </c>
-      <c r="C52" t="s">
-        <v>215</v>
+      <c r="C52">
+        <v>50951790</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>248178945361</v>
       </c>
-      <c r="C53" t="s">
-        <v>219</v>
+      <c r="C53">
+        <v>404217287</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>248462580064</v>
       </c>
-      <c r="C54" t="s">
-        <v>223</v>
+      <c r="C54">
+        <v>390433544</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>247925541601</v>
       </c>
-      <c r="C55" t="s">
-        <v>227</v>
+      <c r="C55">
+        <v>3546379393698286</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>247443478129</v>
       </c>
-      <c r="C56" t="s">
-        <v>231</v>
+      <c r="C56">
+        <v>543100395</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>247392761201</v>
       </c>
-      <c r="C57" t="s">
-        <v>235</v>
+      <c r="C57">
+        <v>696567151</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>191</v>
+      </c>
+      <c r="K57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>247194577824</v>
       </c>
-      <c r="C58" t="s">
-        <v>239</v>
+      <c r="C58">
+        <v>2067235740</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>247189996800</v>
       </c>
-      <c r="C59" t="s">
-        <v>243</v>
+      <c r="C59">
+        <v>278753906</v>
       </c>
       <c r="D59" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>193</v>
+      </c>
+      <c r="K59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>246836147185</v>
       </c>
-      <c r="C60" t="s">
-        <v>247</v>
+      <c r="C60">
+        <v>687303190</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>246732457745</v>
       </c>
-      <c r="C61" t="s">
-        <v>251</v>
+      <c r="C61">
+        <v>2015057069</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>254</v>
+        <v>195</v>
+      </c>
+      <c r="K61" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
